--- a/data/trans_orig/IP11CS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11CS1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97061B8-A926-43FF-88AD-63DF71ACA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5872218E-CCB9-450C-A4AB-97EAC1B47FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{802658CD-E7F6-4BF6-A7A3-54A035B59F41}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F97A4E9-EAED-4E32-93D8-DB46408397FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="424">
   <si>
     <t>Menores según consecuencia del accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>16,38%</t>
   </si>
   <si>
-    <t>68,7%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>40,35%</t>
+    <t>40,53%</t>
   </si>
   <si>
     <t>Consultar a un médico o enfermera</t>
@@ -101,19 +101,19 @@
     <t>23,67%</t>
   </si>
   <si>
-    <t>74,79%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>72,01%</t>
+    <t>70,99%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>60,66%</t>
+    <t>61,38%</t>
   </si>
   <si>
     <t>Acudir a un servicio de urgencias</t>
@@ -122,118 +122,115 @@
     <t>76,33%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>64,03%</t>
   </si>
   <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>Ser ingresado en un hospital o clínica</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Ser ingresado en un hospital o clínica</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>47,47%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>61,06%</t>
   </si>
   <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>5,6%</t>
@@ -242,22 +239,22 @@
     <t>1,61%</t>
   </si>
   <si>
-    <t>15,99%</t>
+    <t>14,83%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>17,29%</t>
+    <t>15,5%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -266,31 +263,31 @@
     <t>52,5%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>38,92%</t>
+    <t>40,01%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>42,36%</t>
+    <t>48,55%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -299,1024 +296,1021 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>17,93%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>61,75%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>61,08%</t>
+    <t>59,99%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>32,16%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>15,08%</t>
+    <t>15,13%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>39,67%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,16%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>14,77%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5788A6-F719-4EB0-8C99-E399613353F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F099E2-3C78-4C6C-9412-982D9759DC5E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,10 +1951,10 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -1969,13 +1963,13 @@
         <v>2634</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1984,19 +1978,19 @@
         <v>4802</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2026,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2041,7 +2035,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2050,13 @@
         <v>2839</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2071,13 +2065,13 @@
         <v>4114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -2086,18 +2080,18 @@
         <v>6954</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2109,13 +2103,13 @@
         <v>3901</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2124,13 +2118,13 @@
         <v>7703</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -2139,13 +2133,13 @@
         <v>11604</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2154,13 @@
         <v>5546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2175,13 +2169,13 @@
         <v>2616</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2190,13 +2184,13 @@
         <v>8162</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2205,13 @@
         <v>25406</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2226,13 +2220,13 @@
         <v>9990</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2241,19 +2235,19 @@
         <v>35396</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -2262,13 +2256,13 @@
         <v>2069</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2277,13 +2271,13 @@
         <v>737</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2292,13 +2286,13 @@
         <v>2806</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2307,13 @@
         <v>36922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2328,13 +2322,13 @@
         <v>21046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -2343,18 +2337,18 @@
         <v>57968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2366,13 +2360,13 @@
         <v>3551</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2381,13 +2375,13 @@
         <v>1360</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2396,13 +2390,13 @@
         <v>4912</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2411,13 @@
         <v>672</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2438,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2447,13 +2441,13 @@
         <v>672</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,10 +2462,10 @@
         <v>2053</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>88</v>
@@ -2489,7 +2483,7 @@
         <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2510,7 +2504,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2540,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2570,13 +2564,13 @@
         <v>6764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -2585,13 +2579,13 @@
         <v>10144</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2600,13 +2594,13 @@
         <v>16908</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,10 +2635,10 @@
         <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2653,13 +2647,13 @@
         <v>17189</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2668,13 @@
         <v>6890</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2692,10 +2686,10 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2704,13 +2698,13 @@
         <v>10312</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2719,13 @@
         <v>29626</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -2740,13 +2734,13 @@
         <v>21408</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>77</v>
@@ -2755,19 +2749,19 @@
         <v>51034</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -2776,13 +2770,13 @@
         <v>2557</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2791,13 +2785,13 @@
         <v>737</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2806,13 +2800,13 @@
         <v>3294</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2821,13 @@
         <v>46525</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -2842,13 +2836,13 @@
         <v>35304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -2857,18 +2851,18 @@
         <v>81829</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C72E55F-D22E-410E-B160-F0128643EA6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C3E315-0C2B-43E1-B912-FB1C457BB10A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2904,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3011,13 +3005,13 @@
         <v>1797</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3026,13 +3020,13 @@
         <v>1265</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3041,13 +3035,13 @@
         <v>3062</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3056,13 @@
         <v>651</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3083,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3092,13 +3086,13 @@
         <v>651</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3107,13 @@
         <v>9462</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3128,13 +3122,13 @@
         <v>2113</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3143,19 +3137,19 @@
         <v>11575</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -3164,13 +3158,13 @@
         <v>674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3179,13 +3173,13 @@
         <v>675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3194,13 +3188,13 @@
         <v>1349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3209,13 @@
         <v>12584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3230,13 +3224,13 @@
         <v>4053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -3245,18 +3239,18 @@
         <v>16637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3262,13 @@
         <v>10273</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -3283,13 +3277,13 @@
         <v>15695</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -3298,13 +3292,13 @@
         <v>25968</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3313,13 @@
         <v>5821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3334,13 +3328,13 @@
         <v>1306</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3349,13 +3343,13 @@
         <v>7127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3364,13 @@
         <v>25041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3385,13 +3379,13 @@
         <v>19861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -3400,19 +3394,19 @@
         <v>44901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -3421,13 +3415,13 @@
         <v>3760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3436,13 +3430,13 @@
         <v>1089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3451,13 +3445,13 @@
         <v>4849</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3466,13 @@
         <v>44894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3487,13 +3481,13 @@
         <v>37951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -3502,18 +3496,18 @@
         <v>82845</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3525,13 +3519,13 @@
         <v>6488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3540,13 +3534,13 @@
         <v>4020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3555,13 +3549,13 @@
         <v>10508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3570,13 @@
         <v>887</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3591,13 +3585,13 @@
         <v>930</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3606,13 +3600,13 @@
         <v>1817</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3621,13 @@
         <v>7269</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3642,13 +3636,13 @@
         <v>3429</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3657,19 +3651,19 @@
         <v>10698</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -3678,13 +3672,13 @@
         <v>1255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3693,13 +3687,13 @@
         <v>1329</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3708,13 +3702,13 @@
         <v>2585</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3723,13 @@
         <v>15899</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3744,13 +3738,13 @@
         <v>9708</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -3759,13 +3753,13 @@
         <v>25607</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3776,13 @@
         <v>18558</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3797,13 +3791,13 @@
         <v>20980</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -3812,13 +3806,13 @@
         <v>39538</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3827,13 @@
         <v>7359</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3848,13 +3842,13 @@
         <v>2236</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3863,13 +3857,13 @@
         <v>9595</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3878,13 @@
         <v>41772</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -3899,13 +3893,13 @@
         <v>25402</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>96</v>
@@ -3914,19 +3908,19 @@
         <v>67174</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>7</v>
@@ -3935,13 +3929,13 @@
         <v>5689</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3950,7 +3944,7 @@
         <v>3093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>254</v>
@@ -3986,13 +3980,13 @@
         <v>73377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
@@ -4001,13 +3995,13 @@
         <v>51712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>180</v>
@@ -4016,18 +4010,18 @@
         <v>125089</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +4040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA8EEE-F7C9-4974-84CA-A288A6F693B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06683F7-D4F4-448E-8BCD-C8945D96E518}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,13 +4266,13 @@
         <v>2529</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4287,13 +4281,13 @@
         <v>2457</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4302,19 +4296,19 @@
         <v>4986</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4374,13 +4368,13 @@
         <v>2529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4389,13 +4383,13 @@
         <v>2457</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4404,18 +4398,18 @@
         <v>4986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4463,7 +4457,7 @@
         <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4472,13 @@
         <v>1716</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4499,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4508,13 +4502,13 @@
         <v>1716</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4523,13 @@
         <v>23681</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4544,13 +4538,13 @@
         <v>14021</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -4559,19 +4553,19 @@
         <v>37702</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -4580,13 +4574,13 @@
         <v>1673</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4595,13 +4589,13 @@
         <v>1740</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4610,13 +4604,13 @@
         <v>3413</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4625,13 @@
         <v>31390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4646,13 +4640,13 @@
         <v>16500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4661,18 +4655,18 @@
         <v>47890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4684,13 +4678,13 @@
         <v>1989</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4705,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4714,13 +4708,13 @@
         <v>1989</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4729,13 @@
         <v>633</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4756,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -4765,13 +4759,13 @@
         <v>634</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4780,13 @@
         <v>4182</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4801,13 +4795,13 @@
         <v>4412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4816,19 +4810,19 @@
         <v>8595</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4843,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4858,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4873,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4882,13 @@
         <v>6805</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4903,13 +4897,13 @@
         <v>4412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4918,13 +4912,13 @@
         <v>11218</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,10 +4935,10 @@
         <v>6309</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>312</v>
@@ -4977,7 +4971,7 @@
         <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>2350</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5013,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5022,13 +5016,13 @@
         <v>2350</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5037,13 @@
         <v>30392</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5058,13 +5052,13 @@
         <v>20890</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M21" s="7">
         <v>76</v>
@@ -5073,19 +5067,19 @@
         <v>51282</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -5094,13 +5088,13 @@
         <v>1673</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5109,13 +5103,13 @@
         <v>1740</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5124,13 +5118,13 @@
         <v>3413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5139,13 @@
         <v>40724</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -5160,13 +5154,13 @@
         <v>23369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>94</v>
@@ -5175,18 +5169,18 @@
         <v>64093</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5205,7 +5199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC21EA4-0259-445F-AC55-BCBB75274AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A21D62-7582-4439-87A1-A33C5FAE9B66}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5335,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5344,13 +5338,13 @@
         <v>656</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5359,13 +5353,13 @@
         <v>656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5401,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5416,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5425,13 @@
         <v>1036</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5446,13 +5440,13 @@
         <v>424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5461,19 +5455,19 @@
         <v>1460</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5488,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5503,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5518,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5527,13 @@
         <v>1036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5548,13 +5542,13 @@
         <v>1080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5563,18 +5557,18 @@
         <v>2116</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5586,13 +5580,13 @@
         <v>688</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5601,13 +5595,13 @@
         <v>1694</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5616,13 +5610,13 @@
         <v>2382</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5631,13 @@
         <v>906</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5652,13 +5646,13 @@
         <v>1252</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5667,13 +5661,13 @@
         <v>2158</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5682,13 @@
         <v>11790</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -5703,13 +5697,13 @@
         <v>7471</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -5718,19 +5712,19 @@
         <v>19262</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -5739,13 +5733,13 @@
         <v>590</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5790,13 +5784,13 @@
         <v>13974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5805,13 +5799,13 @@
         <v>11014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5820,18 +5814,18 @@
         <v>24989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5864,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5915,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5951,7 +5945,7 @@
         <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5966,7 +5960,7 @@
         <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5987,7 +5981,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -6047,13 +6041,13 @@
         <v>7399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -6062,13 +6056,13 @@
         <v>5107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -6077,13 +6071,13 @@
         <v>12507</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6124,7 @@
         <v>3038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>402</v>
@@ -6184,10 +6178,10 @@
         <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6196,13 @@
         <v>18308</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -6217,13 +6211,13 @@
         <v>11932</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -6232,19 +6226,19 @@
         <v>30240</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -6253,13 +6247,13 @@
         <v>1105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -6271,10 +6265,10 @@
         <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6283,13 +6277,13 @@
         <v>2772</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6298,13 @@
         <v>22410</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -6319,13 +6313,13 @@
         <v>17201</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>55</v>
@@ -6334,18 +6328,18 @@
         <v>39611</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
